--- a/DOWNLOADS/EDITAIS/U_495130_E_900882025/U_495130_E_900882025_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_495130_E_900882025/U_495130_E_900882025_master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Nº</t>
   </si>
@@ -22,6 +22,9 @@
     <t>DESCRICAO</t>
   </si>
   <si>
+    <t>REFERENCIA</t>
+  </si>
+  <si>
     <t>QTDE</t>
   </si>
   <si>
@@ -44,6 +47,9 @@
   </si>
   <si>
     <t>Veículos Teleguiados Veículos Teleguiados Tipo: Aeronave Remotamente Pilotada (Drone), Quantidade Motores: 4 Motores, Tamanho Diagonal: 350MM, Velocidade Ascensão Vertical: 6M/S, Peso Máximo: 1.375G, Características Adicionais: Cmos De 20 Megapixels De 1pol, Câmera 4k</t>
+  </si>
+  <si>
+    <t>Aquisição de1 (um) sistema de levantamento hidrográfico não tripulado (barco-drone) com sensore multifeixe e ADCP (Acoustic Doppler Current Profiler), para obtenção de informações de fundos de rios, lagos e mares rasos para atender as necessidades da Companhia de Pesquisa de Recursos Minerais - CPRM, com as atribuições do Serviço Geológico do Brasil, conforme as especificações constantes no Termo de Referência – Anexo I, deste Edital.</t>
   </si>
   <si>
     <t>Unidade</t>
@@ -410,13 +416,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,31 +447,37 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
         <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1678500</v>
       </c>
       <c r="E2">
         <v>1678500</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
+      <c r="F2">
+        <v>1678500</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/DOWNLOADS/EDITAIS/U_495130_E_900882025/U_495130_E_900882025_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_495130_E_900882025/U_495130_E_900882025_master.xlsx
@@ -49,7 +49,7 @@
     <t>Veículos Teleguiados Veículos Teleguiados Tipo: Aeronave Remotamente Pilotada (Drone), Quantidade Motores: 4 Motores, Tamanho Diagonal: 350MM, Velocidade Ascensão Vertical: 6M/S, Peso Máximo: 1.375G, Características Adicionais: Cmos De 20 Megapixels De 1pol, Câmera 4k</t>
   </si>
   <si>
-    <t>Aquisição de1 (um) sistema de levantamento hidrográfico não tripulado (barco-drone) com sensore multifeixe e ADCP (Acoustic Doppler Current Profiler), para obtenção de informações de fundos de rios, lagos e mares rasos para atender as necessidades da Companhia de Pesquisa de Recursos Minerais - CPRM, com as atribuições do Serviço Geológico do Brasil, conforme as especificações constantes no Termo de Referência – Anexo I, deste Edital.</t>
+    <t>Barco Drone não tripulado com acessórios e software, modelo Apache, motor brushless DC 1000W com propulsor plugável, velocidade máxima 6 m/s, propulsão, alimentação por bateria única ou dupla, autonomia mínima 7 h a 1,5 m/s, peso em vazio 35 kg, dimensões 1,2 m × 0,75 m × 0,4 m, capacidade de carga 12 kg, GNSS de antena dupla integrada, navegação com radar de onda milimétrica, câmera 360°, classificação IP67, sensor multifeixe CHCNav HQ‑400 superior, ADCP Acoustik Doppler Current Profiler com 5 feixes e alcance de 0,15 m a 55 m.</t>
   </si>
   <si>
     <t>Unidade</t>
